--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H2">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I2">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J2">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N2">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q2">
-        <v>0.5123567226318022</v>
+        <v>2.876970261398</v>
       </c>
       <c r="R2">
-        <v>0.5123567226318022</v>
+        <v>25.892732352582</v>
       </c>
       <c r="S2">
-        <v>0.007156378101317069</v>
+        <v>0.01542666492638804</v>
       </c>
       <c r="T2">
-        <v>0.007156378101317069</v>
+        <v>0.01542666492638803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H3">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I3">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J3">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N3">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q3">
-        <v>10.8760830156362</v>
+        <v>42.34936361762801</v>
       </c>
       <c r="R3">
-        <v>10.8760830156362</v>
+        <v>381.1442725586521</v>
       </c>
       <c r="S3">
-        <v>0.1519124447541195</v>
+        <v>0.2270824454255757</v>
       </c>
       <c r="T3">
-        <v>0.1519124447541195</v>
+        <v>0.2270824454255756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H4">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I4">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J4">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N4">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q4">
-        <v>6.164121513083568</v>
+        <v>39.458343530426</v>
       </c>
       <c r="R4">
-        <v>6.164121513083568</v>
+        <v>355.125091773834</v>
       </c>
       <c r="S4">
-        <v>0.08609779526946833</v>
+        <v>0.2115804436221053</v>
       </c>
       <c r="T4">
-        <v>0.08609779526946833</v>
+        <v>0.2115804436221052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H5">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I5">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J5">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N5">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q5">
-        <v>6.390032844667418</v>
+        <v>24.784761878614</v>
       </c>
       <c r="R5">
-        <v>6.390032844667418</v>
+        <v>223.062856907526</v>
       </c>
       <c r="S5">
-        <v>0.08925322748060743</v>
+        <v>0.132898911716905</v>
       </c>
       <c r="T5">
-        <v>0.08925322748060743</v>
+        <v>0.1328989117169049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H6">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I6">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J6">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N6">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q6">
-        <v>1.498286116247418</v>
+        <v>6.034973223122001</v>
       </c>
       <c r="R6">
-        <v>1.498286116247418</v>
+        <v>54.314759008098</v>
       </c>
       <c r="S6">
-        <v>0.02092741536940045</v>
+        <v>0.03236026141875636</v>
       </c>
       <c r="T6">
-        <v>0.02092741536940045</v>
+        <v>0.03236026141875636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H7">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I7">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J7">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N7">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q7">
-        <v>2.31441630767798</v>
+        <v>9.068111736440001</v>
       </c>
       <c r="R7">
-        <v>2.31441630767798</v>
+        <v>81.61300562796001</v>
       </c>
       <c r="S7">
-        <v>0.03232677049013846</v>
+        <v>0.04862431953159289</v>
       </c>
       <c r="T7">
-        <v>0.03232677049013846</v>
+        <v>0.04862431953159287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H8">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I8">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J8">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N8">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q8">
-        <v>0.2963168962922624</v>
+        <v>0.437579956029</v>
       </c>
       <c r="R8">
-        <v>0.2963168962922624</v>
+        <v>3.938219604261</v>
       </c>
       <c r="S8">
-        <v>0.004138826825153409</v>
+        <v>0.002346357016871904</v>
       </c>
       <c r="T8">
-        <v>0.004138826825153409</v>
+        <v>0.002346357016871903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H9">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I9">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J9">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N9">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q9">
-        <v>6.290084662998174</v>
+        <v>6.441231916194001</v>
       </c>
       <c r="R9">
-        <v>6.290084662998174</v>
+        <v>57.97108724574601</v>
       </c>
       <c r="S9">
-        <v>0.08785719431275874</v>
+        <v>0.03453867000905186</v>
       </c>
       <c r="T9">
-        <v>0.08785719431275874</v>
+        <v>0.03453867000905184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H10">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I10">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J10">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N10">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q10">
-        <v>3.564964163528502</v>
+        <v>6.001515016922999</v>
       </c>
       <c r="R10">
-        <v>3.564964163528502</v>
+        <v>54.013635152307</v>
       </c>
       <c r="S10">
-        <v>0.04979388450454564</v>
+        <v>0.03218085444225909</v>
       </c>
       <c r="T10">
-        <v>0.04979388450454564</v>
+        <v>0.03218085444225909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H11">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I11">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J11">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N11">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q11">
-        <v>3.695617947611443</v>
+        <v>3.769700075997</v>
       </c>
       <c r="R11">
-        <v>3.695617947611443</v>
+        <v>33.927300683973</v>
       </c>
       <c r="S11">
-        <v>0.05161880030629906</v>
+        <v>0.02021359091738634</v>
       </c>
       <c r="T11">
-        <v>0.05161880030629906</v>
+        <v>0.02021359091738634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H12">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I12">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J12">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N12">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q12">
-        <v>0.866520281892102</v>
+        <v>0.917904280431</v>
       </c>
       <c r="R12">
-        <v>0.866520281892102</v>
+        <v>8.261138523879</v>
       </c>
       <c r="S12">
-        <v>0.01210318220833826</v>
+        <v>0.004921914542775119</v>
       </c>
       <c r="T12">
-        <v>0.01210318220833826</v>
+        <v>0.004921914542775119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H13">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I13">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J13">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N13">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q13">
-        <v>1.338521828105645</v>
+        <v>1.37923703562</v>
       </c>
       <c r="R13">
-        <v>1.338521828105645</v>
+        <v>12.41313332058</v>
       </c>
       <c r="S13">
-        <v>0.0186958965807772</v>
+        <v>0.007395636961584497</v>
       </c>
       <c r="T13">
-        <v>0.0186958965807772</v>
+        <v>0.007395636961584495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H14">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I14">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J14">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N14">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q14">
-        <v>0.09785911082298791</v>
+        <v>0.09771659318833331</v>
       </c>
       <c r="R14">
-        <v>0.09785911082298791</v>
+        <v>0.8794493386949999</v>
       </c>
       <c r="S14">
-        <v>0.001366853925738891</v>
+        <v>0.0005239682735309479</v>
       </c>
       <c r="T14">
-        <v>0.001366853925738891</v>
+        <v>0.0005239682735309475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H15">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I15">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J15">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N15">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q15">
-        <v>2.077310135953891</v>
+        <v>1.438400525696667</v>
       </c>
       <c r="R15">
-        <v>2.077310135953891</v>
+        <v>12.94560473127</v>
       </c>
       <c r="S15">
-        <v>0.02901497357197294</v>
+        <v>0.007712878800867505</v>
       </c>
       <c r="T15">
-        <v>0.02901497357197294</v>
+        <v>0.007712878800867503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H16">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I16">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J16">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N16">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q16">
-        <v>1.177334898967844</v>
+        <v>1.340206728718333</v>
       </c>
       <c r="R16">
-        <v>1.177334898967844</v>
+        <v>12.061860558465</v>
       </c>
       <c r="S16">
-        <v>0.01644450695525402</v>
+        <v>0.007186351702496165</v>
       </c>
       <c r="T16">
-        <v>0.01644450695525402</v>
+        <v>0.007186351702496162</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H17">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I17">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J17">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N17">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q17">
-        <v>1.220483512145152</v>
+        <v>0.8418170066816666</v>
       </c>
       <c r="R17">
-        <v>1.220483512145152</v>
+        <v>7.576353060134999</v>
       </c>
       <c r="S17">
-        <v>0.01704718820603989</v>
+        <v>0.004513925314300107</v>
       </c>
       <c r="T17">
-        <v>0.01704718820603989</v>
+        <v>0.004513925314300105</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H18">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I18">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J18">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N18">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q18">
-        <v>0.2861696560577136</v>
+        <v>0.2049784911783333</v>
       </c>
       <c r="R18">
-        <v>0.2861696560577136</v>
+        <v>1.844806420605</v>
       </c>
       <c r="S18">
-        <v>0.003997094542554837</v>
+        <v>0.001099119633926339</v>
       </c>
       <c r="T18">
-        <v>0.003997094542554837</v>
+        <v>0.001099119633926339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H19">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I19">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J19">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N19">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q19">
-        <v>0.4420488927718263</v>
+        <v>0.3079993552333333</v>
       </c>
       <c r="R19">
-        <v>0.4420488927718263</v>
+        <v>2.7719941971</v>
       </c>
       <c r="S19">
-        <v>0.006174348605584972</v>
+        <v>0.001651530053848855</v>
       </c>
       <c r="T19">
-        <v>0.006174348605584972</v>
+        <v>0.001651530053848854</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H20">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I20">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J20">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N20">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q20">
-        <v>0.4150846112328556</v>
+        <v>0.05499331516444444</v>
       </c>
       <c r="R20">
-        <v>0.4150846112328556</v>
+        <v>0.4949398364799999</v>
       </c>
       <c r="S20">
-        <v>0.005797723130794608</v>
+        <v>0.0002948808535201524</v>
       </c>
       <c r="T20">
-        <v>0.005797723130794608</v>
+        <v>0.0002948808535201523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H21">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I21">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J21">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N21">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q21">
-        <v>8.811233445112601</v>
+        <v>0.8095085068088889</v>
       </c>
       <c r="R21">
-        <v>8.811233445112601</v>
+        <v>7.28557656128</v>
       </c>
       <c r="S21">
-        <v>0.1230715149950536</v>
+        <v>0.004340683203146202</v>
       </c>
       <c r="T21">
-        <v>0.1230715149950536</v>
+        <v>0.004340683203146201</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H22">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I22">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J22">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N22">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q22">
-        <v>4.993848755819095</v>
+        <v>0.7542466290844444</v>
       </c>
       <c r="R22">
-        <v>4.993848755819095</v>
+        <v>6.788219661759999</v>
       </c>
       <c r="S22">
-        <v>0.06975192926884997</v>
+        <v>0.004044362284471229</v>
       </c>
       <c r="T22">
-        <v>0.06975192926884997</v>
+        <v>0.004044362284471227</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H23">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I23">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J23">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N23">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q23">
-        <v>5.176870297454975</v>
+        <v>0.4737609698488888</v>
       </c>
       <c r="R23">
-        <v>5.176870297454975</v>
+        <v>4.263848728639999</v>
       </c>
       <c r="S23">
-        <v>0.0723082953606316</v>
+        <v>0.00254036401944176</v>
       </c>
       <c r="T23">
-        <v>0.0723082953606316</v>
+        <v>0.002540364019441759</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H24">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I24">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J24">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N24">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q24">
-        <v>1.213833024154687</v>
+        <v>0.1153585731911111</v>
       </c>
       <c r="R24">
-        <v>1.213833024154687</v>
+        <v>1.03822715872</v>
       </c>
       <c r="S24">
-        <v>0.01695429705322439</v>
+        <v>0.0006185667189137799</v>
       </c>
       <c r="T24">
-        <v>0.01695429705322439</v>
+        <v>0.0006185667189137797</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04234666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.12704</v>
+      </c>
+      <c r="I25">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="J25">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N25">
+        <v>12.27986</v>
+      </c>
+      <c r="O25">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P25">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q25">
+        <v>0.1733370460444444</v>
+      </c>
+      <c r="R25">
+        <v>1.5600334144</v>
+      </c>
+      <c r="S25">
+        <v>0.0009294543515226195</v>
+      </c>
+      <c r="T25">
+        <v>0.0009294543515226193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.140989</v>
+      </c>
+      <c r="H26">
+        <v>0.422967</v>
+      </c>
+      <c r="I26">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J26">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.298645666666667</v>
+      </c>
+      <c r="N26">
+        <v>3.895937</v>
+      </c>
+      <c r="O26">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="P26">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="Q26">
+        <v>0.1830947538976667</v>
+      </c>
+      <c r="R26">
+        <v>1.647852785079</v>
+      </c>
+      <c r="S26">
+        <v>0.0009817763694179654</v>
+      </c>
+      <c r="T26">
+        <v>0.0009817763694179651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.140989</v>
+      </c>
+      <c r="H27">
+        <v>0.422967</v>
+      </c>
+      <c r="I27">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J27">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>19.11622733333333</v>
+      </c>
+      <c r="N27">
+        <v>57.348682</v>
+      </c>
+      <c r="O27">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="P27">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="Q27">
+        <v>2.695177775499333</v>
+      </c>
+      <c r="R27">
+        <v>24.25659997949401</v>
+      </c>
+      <c r="S27">
+        <v>0.01445187147658328</v>
+      </c>
+      <c r="T27">
+        <v>0.01445187147658327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.140989</v>
+      </c>
+      <c r="H28">
+        <v>0.422967</v>
+      </c>
+      <c r="I28">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J28">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.81123966666667</v>
+      </c>
+      <c r="N28">
+        <v>53.433719</v>
+      </c>
+      <c r="O28">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="P28">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="Q28">
+        <v>2.511188869363667</v>
+      </c>
+      <c r="R28">
+        <v>22.600699824273</v>
+      </c>
+      <c r="S28">
+        <v>0.0134653005539668</v>
+      </c>
+      <c r="T28">
+        <v>0.0134653005539668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.140989</v>
+      </c>
+      <c r="H29">
+        <v>0.422967</v>
+      </c>
+      <c r="I29">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J29">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.18768033333333</v>
+      </c>
+      <c r="N29">
+        <v>33.563041</v>
+      </c>
+      <c r="O29">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="P29">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="Q29">
+        <v>1.577339862516333</v>
+      </c>
+      <c r="R29">
+        <v>14.196058762647</v>
+      </c>
+      <c r="S29">
+        <v>0.008457888446247031</v>
+      </c>
+      <c r="T29">
+        <v>0.008457888446247027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.140989</v>
+      </c>
+      <c r="H30">
+        <v>0.422967</v>
+      </c>
+      <c r="I30">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J30">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.724147666666667</v>
+      </c>
+      <c r="N30">
+        <v>8.172442999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="P30">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="Q30">
+        <v>0.3840748553756667</v>
+      </c>
+      <c r="R30">
+        <v>3.456673698381</v>
+      </c>
+      <c r="S30">
+        <v>0.002059456150809231</v>
+      </c>
+      <c r="T30">
+        <v>0.002059456150809231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.140989</v>
+      </c>
+      <c r="H31">
+        <v>0.422967</v>
+      </c>
+      <c r="I31">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J31">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N31">
+        <v>12.27986</v>
+      </c>
+      <c r="O31">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P31">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q31">
+        <v>0.5771083938466667</v>
+      </c>
+      <c r="R31">
+        <v>5.193975544620001</v>
+      </c>
+      <c r="S31">
+        <v>0.003094525493549022</v>
+      </c>
+      <c r="T31">
+        <v>0.003094525493549022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.516951</v>
+      </c>
+      <c r="I32">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J32">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.298645666666667</v>
+      </c>
+      <c r="N32">
+        <v>3.895937</v>
+      </c>
+      <c r="O32">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="P32">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="Q32">
+        <v>0.6566606142318888</v>
+      </c>
+      <c r="R32">
+        <v>5.909945528086999</v>
+      </c>
+      <c r="S32">
+        <v>0.003521094187879792</v>
+      </c>
+      <c r="T32">
+        <v>0.00352109418787979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.516951</v>
+      </c>
+      <c r="I33">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J33">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>19.11622733333333</v>
+      </c>
+      <c r="N33">
+        <v>57.348682</v>
+      </c>
+      <c r="O33">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="P33">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="Q33">
+        <v>9.666126723175777</v>
+      </c>
+      <c r="R33">
+        <v>86.995140508582</v>
+      </c>
+      <c r="S33">
+        <v>0.05183094872241683</v>
+      </c>
+      <c r="T33">
+        <v>0.05183094872241682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.516951</v>
+      </c>
+      <c r="I34">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J34">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.81123966666667</v>
+      </c>
+      <c r="N34">
+        <v>53.433719</v>
+      </c>
+      <c r="O34">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="P34">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="Q34">
+        <v>9.006259274529889</v>
+      </c>
+      <c r="R34">
+        <v>81.05633347076899</v>
+      </c>
+      <c r="S34">
+        <v>0.0482926590978504</v>
+      </c>
+      <c r="T34">
+        <v>0.04829265909785038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="H25">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="I25">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="J25">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.98841233107681</v>
-      </c>
-      <c r="N25">
-        <v>3.98841233107681</v>
-      </c>
-      <c r="O25">
-        <v>0.08338647385787745</v>
-      </c>
-      <c r="P25">
-        <v>0.08338647385787745</v>
-      </c>
-      <c r="Q25">
-        <v>1.875019007009054</v>
-      </c>
-      <c r="R25">
-        <v>1.875019007009054</v>
-      </c>
-      <c r="S25">
-        <v>0.02618945818137683</v>
-      </c>
-      <c r="T25">
-        <v>0.02618945818137683</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.516951</v>
+      </c>
+      <c r="I35">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J35">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11.18768033333333</v>
+      </c>
+      <c r="N35">
+        <v>33.563041</v>
+      </c>
+      <c r="O35">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="P35">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="Q35">
+        <v>5.657054289776777</v>
+      </c>
+      <c r="R35">
+        <v>50.913488607991</v>
+      </c>
+      <c r="S35">
+        <v>0.03033381407160105</v>
+      </c>
+      <c r="T35">
+        <v>0.03033381407160103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.516951</v>
+      </c>
+      <c r="I36">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J36">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.724147666666667</v>
+      </c>
+      <c r="N36">
+        <v>8.172442999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="P36">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="Q36">
+        <v>1.377466175699222</v>
+      </c>
+      <c r="R36">
+        <v>12.397195581293</v>
+      </c>
+      <c r="S36">
+        <v>0.007386141395017139</v>
+      </c>
+      <c r="T36">
+        <v>0.007386141395017137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.516951</v>
+      </c>
+      <c r="I37">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J37">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N37">
+        <v>12.27986</v>
+      </c>
+      <c r="O37">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P37">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q37">
+        <v>2.069771767428889</v>
+      </c>
+      <c r="R37">
+        <v>18.62794590686</v>
+      </c>
+      <c r="S37">
+        <v>0.01109836829342403</v>
+      </c>
+      <c r="T37">
+        <v>0.01109836829342403</v>
       </c>
     </row>
   </sheetData>
